--- a/data/random_120_layerOutputData.xlsx
+++ b/data/random_120_layerOutputData.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10311"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Desktop\suction\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kosei/Documents/Study/saxon/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71872032-9D4C-A84C-84E3-78D89A797F17}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="random_120_layerOutputData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>layer0</t>
   </si>
@@ -44,12 +45,41 @@
   <si>
     <t>layer3</t>
   </si>
+  <si>
+    <t>layer</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>割合(青/合計)</t>
+    <rPh sb="0" eb="75">
+      <t>ワリアイ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,7 +421,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -568,6 +598,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -697,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,6 +762,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1039,21 +1087,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>-0.02</v>
       </c>
@@ -1064,7 +1112,7 @@
         <v>-1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1072,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" thickBot="1">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1080,7 +1128,7 @@
         <v>18010</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1094,7 +1142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6">
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1102,7 +1150,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" thickBot="1">
       <c r="E7" s="5">
         <v>1</v>
       </c>
@@ -1110,12 +1158,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>-1.4999999999999999E-2</v>
       </c>
@@ -1126,7 +1174,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1182,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1142,7 +1190,7 @@
         <v>18058</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1150,12 +1198,12 @@
         <v>18488</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>-0.01</v>
       </c>
@@ -1166,7 +1214,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1174,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1182,7 +1230,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1190,12 +1238,30 @@
         <v>18296</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="7">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7">
+        <v>4</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -1205,24 +1271,85 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="7">
+        <v>18010</v>
+      </c>
+      <c r="H23" s="7">
+        <v>18058</v>
+      </c>
+      <c r="I23" s="7">
+        <v>18100</v>
+      </c>
+      <c r="J23" s="7">
+        <v>17984</v>
+      </c>
+      <c r="K23" s="7">
+        <f>SUM(G23:J23)</f>
+        <v>72152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="7">
+        <v>18410</v>
+      </c>
+      <c r="H24" s="7">
+        <v>18488</v>
+      </c>
+      <c r="I24" s="7">
+        <v>18296</v>
+      </c>
+      <c r="J24" s="7">
+        <v>18134</v>
+      </c>
+      <c r="K24" s="7">
+        <f>SUM(G24:J24)</f>
+        <v>73328</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25">
         <v>17984</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7">
+        <f>G23/(G23+G24)</f>
+        <v>0.49450851180669964</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" ref="H25:K25" si="0">H23/(H23+H24)</f>
+        <v>0.49411700322880753</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49730739641718869</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49792347306052381</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.49595820731372009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1230,7 +1357,7 @@
         <v>18134</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="B29">
         <f>SUM(B4:B26)</f>
         <v>145480</v>
